--- a/work/r5/Encje.xlsx
+++ b/work/r5/Encje.xlsx
@@ -145,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,9 +172,16 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,12 +192,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -226,49 +240,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -290,25 +280,25 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -316,139 +306,139 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
